--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="0" windowWidth="30960" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="30960" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Source info" sheetId="2" r:id="rId1"/>
     <sheet name="transcrips per recordingTALLY" sheetId="1" r:id="rId2"/>
     <sheet name="chart for a nice coal dower" sheetId="3" r:id="rId3"/>
-    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId4"/>
+    <sheet name="chart for ALL" sheetId="7" r:id="rId4"/>
+    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'transcrips per recordingTALLY'!$A$2:$V$183</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -900,22 +901,22 @@
                   <c:v>in ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a nice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>an ice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>an eye scold hour</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an ice coal dower</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>an ice cold bower</c:v>
@@ -924,28 +925,28 @@
                   <c:v>and i scold hour</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>in the ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>a nice bold hour</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>an ice cold dour</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>a nice gold dollar</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>a nine scold hour</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>an iced cold hour</c:v>
+                  <c:v>a nice cold our</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>a nice cold our</c:v>
+                  <c:v>a nice scold hour</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>a nice scold hour</c:v>
+                  <c:v>a nice spoke hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,22 +1122,22 @@
                   <c:v>in ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a nice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>an ice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>an eye scold hour</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an ice coal dower</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>an ice cold bower</c:v>
@@ -1145,43 +1146,43 @@
                   <c:v>and i scold hour</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>in the ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>a nice bold hour</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>an ice cold dour</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>a nice gold dollar</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>a nine scold hour</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>an iced cold hour</c:v>
+                  <c:v>a nice cold our</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>a nice cold our</c:v>
+                  <c:v>a nice scold hour</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>a nice scold hour</c:v>
+                  <c:v>a nice spoke hour</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>a nice spoke hour</c:v>
+                  <c:v>an ice coal dour</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>a nice bold hour</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>a nights cold hour</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>an ice coal dour</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>and i scold our</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>in ice coal dour</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>a nice fold hour</c:v>
@@ -1229,22 +1230,22 @@
                   <c:v>5.503158E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.013781E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.820004E6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.013781E6</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>859307.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>826911.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>899370.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>892949.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>859307.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>859538.0</c:v>
@@ -1253,43 +1254,43 @@
                   <c:v>1.9840508E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>859334.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.752528E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>919228.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.1509808E7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.80323E6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>859334.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.752528E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7.790415E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>919228.0</c:v>
+                  <c:v>8.253272E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.253272E6</c:v>
+                  <c:v>7.799035E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.799035E6</c:v>
+                  <c:v>7.820643E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.820643E6</c:v>
+                  <c:v>826938.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>2.0242118E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.399068E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.80323E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>7.672039E6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>826938.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.0242118E7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.399068E6</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7.802397E6</c:v>
@@ -1360,22 +1361,22 @@
                   <c:v>in ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a nice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>an ice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>an eye scold hour</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an ice coal dower</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>an ice cold bower</c:v>
@@ -1384,43 +1385,43 @@
                   <c:v>and i scold hour</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>in the ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>a nice bold hour</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>an ice cold dour</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>a nice gold dollar</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>a nine scold hour</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>an iced cold hour</c:v>
+                  <c:v>a nice cold our</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>a nice cold our</c:v>
+                  <c:v>a nice scold hour</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>a nice scold hour</c:v>
+                  <c:v>a nice spoke hour</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>a nice spoke hour</c:v>
+                  <c:v>an ice coal dour</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>a nice bold hour</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>a nights cold hour</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>an ice coal dour</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>and i scold our</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>in ice coal dour</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>a nice fold hour</c:v>
@@ -1519,7 +1520,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.0</c:v>
@@ -1528,7 +1529,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.0</c:v>
@@ -1737,22 +1738,22 @@
                   <c:v>in ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a nice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>an ice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>an eye scold hour</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an ice coal dower</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>an ice cold bower</c:v>
@@ -1761,28 +1762,28 @@
                   <c:v>and i scold hour</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>in the ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>a nice bold hour</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>an ice cold dour</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>a nice gold dollar</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>a nine scold hour</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>an iced cold hour</c:v>
+                  <c:v>a nice cold our</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>a nice cold our</c:v>
+                  <c:v>a nice scold hour</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>a nice scold hour</c:v>
+                  <c:v>a nice spoke hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1950,22 +1951,22 @@
                   <c:v>in ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>a nice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>an ice gold hour</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>an eye scold hour</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an ice coal dower</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>an ice cold bower</c:v>
@@ -1974,28 +1975,28 @@
                   <c:v>and i scold hour</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>in the ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>a nice bold hour</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>an ice cold dour</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>a nice gold dollar</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>a nine scold hour</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>an iced cold hour</c:v>
+                  <c:v>a nice cold our</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>a nice cold our</c:v>
+                  <c:v>a nice scold hour</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>a nice scold hour</c:v>
+                  <c:v>a nice spoke hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2016,22 +2017,22 @@
                   <c:v>5.503158E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.013781E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.820004E6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.013781E6</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>859307.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>826911.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>899370.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>892949.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>859307.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>859538.0</c:v>
@@ -2040,28 +2041,28 @@
                   <c:v>1.9840508E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>859334.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.752528E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>919228.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.1509808E7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.80323E6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>859334.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.752528E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7.790415E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>919228.0</c:v>
+                  <c:v>8.253272E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.253272E6</c:v>
+                  <c:v>7.799035E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.799035E6</c:v>
+                  <c:v>7.820643E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,6 +2079,2456 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>931028.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.851662E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.503158E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.013781E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.820004E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>859307.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>826911.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>899370.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>892949.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>859538.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9840508E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>859334.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.752528E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>919228.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1509808E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.790415E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.253272E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.799035E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.820643E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>826938.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0242118E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.399068E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$3:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="1960631784"/>
+        <c:axId val="1960633800"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$3:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$3:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$3:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$3:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$3:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$3:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$3:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$3:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$3:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$3:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$3:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a nice old hour</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>an ice gold hour</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>an ice cold bower</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>and i scold hour</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>an ice cold dour</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a nice gold dollar</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>an iced cold hour</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>in the ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a nine scold hour</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a nice scold hour</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a nice spoke hour</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>an ice coal dour</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>and i scold our</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>in ice coal dour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$3:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1960151384"/>
+        <c:axId val="1954070456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1960631784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1960633800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1960633800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1960631784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1954070456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1960151384"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1960151384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1954070456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2219,6 +4670,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2826,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2846,7 +5334,7 @@
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="19" width="16.6640625" customWidth="1"/>
   </cols>
@@ -3198,31 +5686,31 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>7820004</v>
+        <v>8013781</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3258,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6">
         <f>COUNTIF(E6:T6,"&gt;1")</f>
@@ -3267,67 +5755,67 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>8013781</v>
+        <v>7820004</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>3</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>4</v>
       </c>
       <c r="V7">
         <f>COUNTIF(E7:T7,"&gt;1")</f>
@@ -3336,16 +5824,16 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>899370</v>
+        <v>859307</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3363,22 +5851,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3396,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V8">
         <f>COUNTIF(E8:T8,"&gt;1")</f>
@@ -3405,16 +5893,16 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>892949</v>
+        <v>826911</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3432,25 +5920,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3465,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V9">
         <f>COUNTIF(E9:T9,"&gt;1")</f>
@@ -3474,16 +5962,16 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C10">
-        <v>859307</v>
+        <v>899370</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3501,40 +5989,40 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>2</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
       </c>
       <c r="V10">
         <f>COUNTIF(E10:T10,"&gt;1")</f>
@@ -3543,16 +6031,16 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>826911</v>
+        <v>892949</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3570,40 +6058,40 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
       </c>
       <c r="V11">
         <f>COUNTIF(E11:T11,"&gt;1")</f>
@@ -3750,16 +6238,16 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C14">
-        <v>21509808</v>
+        <v>859334</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3783,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3792,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3810,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14">
         <f>COUNTIF(E14:T14,"&gt;1")</f>
@@ -3819,67 +6307,67 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>7752528</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>7803230</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
       </c>
       <c r="V15">
         <f>COUNTIF(E15:T15,"&gt;1")</f>
@@ -3888,16 +6376,16 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>859334</v>
+        <v>919228</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3918,22 +6406,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3957,16 +6445,16 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C17">
-        <v>7752528</v>
+        <v>21509808</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3975,49 +6463,49 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>2</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>3</v>
       </c>
       <c r="V17">
         <f>COUNTIF(E17:T17,"&gt;1")</f>
@@ -4095,16 +6583,16 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>919228</v>
+        <v>8253272</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4113,25 +6601,25 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -4140,22 +6628,22 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>3</v>
       </c>
       <c r="V19">
         <f>COUNTIF(E19:T19,"&gt;1")</f>
@@ -4164,13 +6652,13 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>8253272</v>
+        <v>7799035</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -4182,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4233,13 +6721,13 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21">
-        <v>7799035</v>
+        <v>7820643</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -4248,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4302,13 +6790,13 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C22">
-        <v>7820643</v>
+        <v>826938</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -4317,34 +6805,34 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4371,19 +6859,19 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C23">
-        <v>7672039</v>
+        <v>20242118</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4398,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4431,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23">
         <f>COUNTIF(E23:T23,"&gt;1")</f>
@@ -4440,13 +6928,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C24">
-        <v>826938</v>
+        <v>5399068</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -4473,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4485,7 +6973,7 @@
         <v>2</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -4509,16 +6997,16 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>20242118</v>
+        <v>7803230</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4530,16 +7018,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4569,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <f>COUNTIF(E25:T25,"&gt;1")</f>
@@ -4578,19 +7066,19 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>5399068</v>
+        <v>7672039</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4620,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -4638,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <f>COUNTIF(E26:T26,"&gt;1")</f>
@@ -15578,10 +18066,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15624,7 +18132,7 @@
       </c>
       <c r="G1">
         <f t="shared" si="0"/>
-        <v>0.98591549295774628</v>
+        <v>0.98591549295774616</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
@@ -15632,11 +18140,11 @@
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
-        <v>0.98571428571428521</v>
+        <v>0.9857142857142851</v>
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>0.98550724637681097</v>
+        <v>0.98550724637681086</v>
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
@@ -16022,19 +18530,19 @@
       </c>
       <c r="E6" s="1">
         <f>'transcrips per recordingTALLY'!F6/'transcrips per recordingTALLY'!F$1</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F6" s="1">
         <f>'transcrips per recordingTALLY'!G6/'transcrips per recordingTALLY'!G$1</f>
-        <v>0.2318840579710145</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="G6" s="1">
         <f>'transcrips per recordingTALLY'!H6/'transcrips per recordingTALLY'!H$1</f>
-        <v>0.3380281690140845</v>
+        <v>5.6338028169014086E-2</v>
       </c>
       <c r="H6" s="1">
         <f>'transcrips per recordingTALLY'!I6/'transcrips per recordingTALLY'!I$1</f>
-        <v>0.31944444444444442</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I6" s="1">
         <f>'transcrips per recordingTALLY'!J6/'transcrips per recordingTALLY'!J$1</f>
@@ -16082,11 +18590,11 @@
       </c>
       <c r="T6" s="1">
         <f t="shared" si="1"/>
-        <v>0.88935667142954344</v>
+        <v>0.14087909097094645</v>
       </c>
       <c r="U6">
         <f>'transcrips per recordingTALLY'!U6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -16105,19 +18613,19 @@
       </c>
       <c r="E7" s="1">
         <f>'transcrips per recordingTALLY'!F7/'transcrips per recordingTALLY'!F$1</f>
-        <v>1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <f>'transcrips per recordingTALLY'!G7/'transcrips per recordingTALLY'!G$1</f>
-        <v>2.8985507246376812E-2</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="G7" s="1">
         <f>'transcrips per recordingTALLY'!H7/'transcrips per recordingTALLY'!H$1</f>
-        <v>5.6338028169014086E-2</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H7" s="1">
         <f>'transcrips per recordingTALLY'!I7/'transcrips per recordingTALLY'!I$1</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="I7" s="1">
         <f>'transcrips per recordingTALLY'!J7/'transcrips per recordingTALLY'!J$1</f>
@@ -16165,11 +18673,11 @@
       </c>
       <c r="T7" s="1">
         <f t="shared" si="1"/>
-        <v>0.14087909097094645</v>
+        <v>0.88935667142954344</v>
       </c>
       <c r="U7">
         <f>'transcrips per recordingTALLY'!U7</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -16204,15 +18712,15 @@
       </c>
       <c r="I8" s="1">
         <f>'transcrips per recordingTALLY'!J8/'transcrips per recordingTALLY'!J$1</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <f>'transcrips per recordingTALLY'!K8/'transcrips per recordingTALLY'!K$1</f>
-        <v>0.15942028985507245</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="K8" s="1">
         <f>'transcrips per recordingTALLY'!L8/'transcrips per recordingTALLY'!L$1</f>
-        <v>0</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'transcrips per recordingTALLY'!M8/'transcrips per recordingTALLY'!M$1</f>
@@ -16220,11 +18728,11 @@
       </c>
       <c r="M8" s="1">
         <f>'transcrips per recordingTALLY'!N8/'transcrips per recordingTALLY'!N$1</f>
-        <v>0</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'transcrips per recordingTALLY'!O8/'transcrips per recordingTALLY'!O$1</f>
-        <v>0</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'transcrips per recordingTALLY'!P8/'transcrips per recordingTALLY'!P$1</f>
@@ -16248,11 +18756,11 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" si="1"/>
-        <v>0.25942028985507248</v>
+        <v>0.14304131516331386</v>
       </c>
       <c r="U8">
         <f>'transcrips per recordingTALLY'!U8</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -16287,15 +18795,15 @@
       </c>
       <c r="I9" s="1">
         <f>'transcrips per recordingTALLY'!J9/'transcrips per recordingTALLY'!J$1</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <f>'transcrips per recordingTALLY'!K9/'transcrips per recordingTALLY'!K$1</f>
-        <v>4.3478260869565216E-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f>'transcrips per recordingTALLY'!L9/'transcrips per recordingTALLY'!L$1</f>
-        <v>0</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="L9" s="1">
         <f>'transcrips per recordingTALLY'!M9/'transcrips per recordingTALLY'!M$1</f>
@@ -16303,15 +18811,15 @@
       </c>
       <c r="M9" s="1">
         <f>'transcrips per recordingTALLY'!N9/'transcrips per recordingTALLY'!N$1</f>
-        <v>0</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="N9" s="1">
         <f>'transcrips per recordingTALLY'!O9/'transcrips per recordingTALLY'!O$1</f>
-        <v>0</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="O9" s="1">
         <f>'transcrips per recordingTALLY'!P9/'transcrips per recordingTALLY'!P$1</f>
-        <v>0</v>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="P9" s="1">
         <f>'transcrips per recordingTALLY'!Q9/'transcrips per recordingTALLY'!Q$1</f>
@@ -16331,11 +18839,11 @@
       </c>
       <c r="T9" s="1">
         <f t="shared" si="1"/>
-        <v>0.18633540372670807</v>
+        <v>8.0478537146381729E-2</v>
       </c>
       <c r="U9">
         <f>'transcrips per recordingTALLY'!U9</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -16418,7 +18926,7 @@
       </c>
       <c r="U10">
         <f>'transcrips per recordingTALLY'!U10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -16453,15 +18961,15 @@
       </c>
       <c r="I11" s="1">
         <f>'transcrips per recordingTALLY'!J11/'transcrips per recordingTALLY'!J$1</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J11" s="1">
         <f>'transcrips per recordingTALLY'!K11/'transcrips per recordingTALLY'!K$1</f>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'transcrips per recordingTALLY'!L11/'transcrips per recordingTALLY'!L$1</f>
-        <v>2.8985507246376812E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <f>'transcrips per recordingTALLY'!M11/'transcrips per recordingTALLY'!M$1</f>
@@ -16469,15 +18977,15 @@
       </c>
       <c r="M11" s="1">
         <f>'transcrips per recordingTALLY'!N11/'transcrips per recordingTALLY'!N$1</f>
-        <v>1.4925373134328358E-2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
         <f>'transcrips per recordingTALLY'!O11/'transcrips per recordingTALLY'!O$1</f>
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <f>'transcrips per recordingTALLY'!P11/'transcrips per recordingTALLY'!P$1</f>
-        <v>9.9009900990099011E-3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <f>'transcrips per recordingTALLY'!Q11/'transcrips per recordingTALLY'!Q$1</f>
@@ -16497,11 +19005,11 @@
       </c>
       <c r="T11" s="1">
         <f t="shared" si="1"/>
-        <v>8.0478537146381729E-2</v>
+        <v>0.18633540372670807</v>
       </c>
       <c r="U11">
         <f>'transcrips per recordingTALLY'!U11</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -16536,15 +19044,15 @@
       </c>
       <c r="I12" s="1">
         <f>'transcrips per recordingTALLY'!J10/'transcrips per recordingTALLY'!J$1</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="1">
         <f>'transcrips per recordingTALLY'!K10/'transcrips per recordingTALLY'!K$1</f>
-        <v>1.4492753623188406E-2</v>
+        <v>0.15942028985507245</v>
       </c>
       <c r="K12" s="1">
         <f>'transcrips per recordingTALLY'!L10/'transcrips per recordingTALLY'!L$1</f>
-        <v>8.6956521739130432E-2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <f>'transcrips per recordingTALLY'!M10/'transcrips per recordingTALLY'!M$1</f>
@@ -16552,11 +19060,11 @@
       </c>
       <c r="M12" s="1">
         <f>'transcrips per recordingTALLY'!N10/'transcrips per recordingTALLY'!N$1</f>
-        <v>1.4925373134328358E-2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
         <f>'transcrips per recordingTALLY'!O10/'transcrips per recordingTALLY'!O$1</f>
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <f>'transcrips per recordingTALLY'!P10/'transcrips per recordingTALLY'!P$1</f>
@@ -16580,7 +19088,7 @@
       </c>
       <c r="T12" s="1">
         <f t="shared" si="1"/>
-        <v>0.14304131516331386</v>
+        <v>0.25942028985507248</v>
       </c>
       <c r="U12">
         <f>'transcrips per recordingTALLY'!U12</f>
@@ -16710,7 +19218,7 @@
       </c>
       <c r="K14" s="1">
         <f>'transcrips per recordingTALLY'!L14/'transcrips per recordingTALLY'!L$1</f>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="L14" s="1">
         <f>'transcrips per recordingTALLY'!M14/'transcrips per recordingTALLY'!M$1</f>
@@ -16722,11 +19230,11 @@
       </c>
       <c r="N14" s="1">
         <f>'transcrips per recordingTALLY'!O14/'transcrips per recordingTALLY'!O$1</f>
-        <v>0</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="O14" s="1">
         <f>'transcrips per recordingTALLY'!P14/'transcrips per recordingTALLY'!P$1</f>
-        <v>7.9207920792079209E-2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <f>'transcrips per recordingTALLY'!Q14/'transcrips per recordingTALLY'!Q$1</f>
@@ -16746,11 +19254,11 @@
       </c>
       <c r="T14" s="1">
         <f t="shared" si="1"/>
-        <v>9.4133293926407569E-2</v>
+        <v>7.1736967337226912E-2</v>
       </c>
       <c r="U14">
         <f>'transcrips per recordingTALLY'!U14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -16773,15 +19281,15 @@
       </c>
       <c r="F15" s="1">
         <f>'transcrips per recordingTALLY'!G15/'transcrips per recordingTALLY'!G$1</f>
-        <v>0</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="G15" s="1">
         <f>'transcrips per recordingTALLY'!H15/'transcrips per recordingTALLY'!H$1</f>
-        <v>8.4507042253521125E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="H15" s="1">
         <f>'transcrips per recordingTALLY'!I15/'transcrips per recordingTALLY'!I$1</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="I15" s="1">
         <f>'transcrips per recordingTALLY'!J15/'transcrips per recordingTALLY'!J$1</f>
@@ -16829,11 +19337,11 @@
       </c>
       <c r="T15" s="1">
         <f t="shared" si="1"/>
-        <v>8.4507042253521125E-2</v>
+        <v>5.6355038443219707E-2</v>
       </c>
       <c r="U15">
         <f>'transcrips per recordingTALLY'!U15</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -16872,27 +19380,27 @@
       </c>
       <c r="J16" s="1">
         <f>'transcrips per recordingTALLY'!K16/'transcrips per recordingTALLY'!K$1</f>
-        <v>0</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="K16" s="1">
         <f>'transcrips per recordingTALLY'!L16/'transcrips per recordingTALLY'!L$1</f>
-        <v>4.3478260869565216E-2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <f>'transcrips per recordingTALLY'!M16/'transcrips per recordingTALLY'!M$1</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="M16" s="1">
         <f>'transcrips per recordingTALLY'!N16/'transcrips per recordingTALLY'!N$1</f>
-        <v>1.4925373134328358E-2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
         <f>'transcrips per recordingTALLY'!O16/'transcrips per recordingTALLY'!O$1</f>
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <f>'transcrips per recordingTALLY'!P16/'transcrips per recordingTALLY'!P$1</f>
-        <v>0</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="P16" s="1">
         <f>'transcrips per recordingTALLY'!Q16/'transcrips per recordingTALLY'!Q$1</f>
@@ -16912,7 +19420,7 @@
       </c>
       <c r="T16" s="1">
         <f t="shared" si="1"/>
-        <v>7.1736967337226912E-2</v>
+        <v>4.8183622710097102E-2</v>
       </c>
       <c r="U16">
         <f>'transcrips per recordingTALLY'!U16</f>
@@ -16939,7 +19447,7 @@
       </c>
       <c r="F17" s="1">
         <f>'transcrips per recordingTALLY'!G19/'transcrips per recordingTALLY'!G$1</f>
-        <v>0</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="G17" s="1">
         <f>'transcrips per recordingTALLY'!H19/'transcrips per recordingTALLY'!H$1</f>
@@ -16947,7 +19455,7 @@
       </c>
       <c r="H17" s="1">
         <f>'transcrips per recordingTALLY'!I19/'transcrips per recordingTALLY'!I$1</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="I17" s="1">
         <f>'transcrips per recordingTALLY'!J19/'transcrips per recordingTALLY'!J$1</f>
@@ -16955,7 +19463,7 @@
       </c>
       <c r="J17" s="1">
         <f>'transcrips per recordingTALLY'!K19/'transcrips per recordingTALLY'!K$1</f>
-        <v>1.4492753623188406E-2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <f>'transcrips per recordingTALLY'!L19/'transcrips per recordingTALLY'!L$1</f>
@@ -16963,7 +19471,7 @@
       </c>
       <c r="L17" s="1">
         <f>'transcrips per recordingTALLY'!M19/'transcrips per recordingTALLY'!M$1</f>
-        <v>1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
         <f>'transcrips per recordingTALLY'!N19/'transcrips per recordingTALLY'!N$1</f>
@@ -16975,7 +19483,7 @@
       </c>
       <c r="O17" s="1">
         <f>'transcrips per recordingTALLY'!P19/'transcrips per recordingTALLY'!P$1</f>
-        <v>1.9801980198019802E-2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <f>'transcrips per recordingTALLY'!Q19/'transcrips per recordingTALLY'!Q$1</f>
@@ -16995,11 +19503,11 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>4.8183622710097102E-2</v>
+        <v>4.2270531400966184E-2</v>
       </c>
       <c r="U17">
         <f>'transcrips per recordingTALLY'!U17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -17022,15 +19530,15 @@
       </c>
       <c r="F18" s="1">
         <f>'transcrips per recordingTALLY'!G20/'transcrips per recordingTALLY'!G$1</f>
-        <v>1.4492753623188406E-2</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="G18" s="1">
         <f>'transcrips per recordingTALLY'!H20/'transcrips per recordingTALLY'!H$1</f>
-        <v>0</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="H18" s="1">
         <f>'transcrips per recordingTALLY'!I20/'transcrips per recordingTALLY'!I$1</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <f>'transcrips per recordingTALLY'!J20/'transcrips per recordingTALLY'!J$1</f>
@@ -17078,7 +19586,7 @@
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>4.2270531400966184E-2</v>
+        <v>4.3070014288630332E-2</v>
       </c>
       <c r="U18">
         <f>'transcrips per recordingTALLY'!U18</f>
@@ -17101,7 +19609,7 @@
       </c>
       <c r="E19" s="1">
         <f>'transcrips per recordingTALLY'!F22/'transcrips per recordingTALLY'!F$1</f>
-        <v>1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <f>'transcrips per recordingTALLY'!G22/'transcrips per recordingTALLY'!G$1</f>
@@ -17109,7 +19617,7 @@
       </c>
       <c r="G19" s="1">
         <f>'transcrips per recordingTALLY'!H22/'transcrips per recordingTALLY'!H$1</f>
-        <v>2.8169014084507043E-2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>'transcrips per recordingTALLY'!I22/'transcrips per recordingTALLY'!I$1</f>
@@ -17125,7 +19633,7 @@
       </c>
       <c r="K19" s="1">
         <f>'transcrips per recordingTALLY'!L22/'transcrips per recordingTALLY'!L$1</f>
-        <v>0</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="L19" s="1">
         <f>'transcrips per recordingTALLY'!M22/'transcrips per recordingTALLY'!M$1</f>
@@ -17137,7 +19645,7 @@
       </c>
       <c r="N19" s="1">
         <f>'transcrips per recordingTALLY'!O22/'transcrips per recordingTALLY'!O$1</f>
-        <v>0</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="O19" s="1">
         <f>'transcrips per recordingTALLY'!P22/'transcrips per recordingTALLY'!P$1</f>
@@ -17161,11 +19669,11 @@
       </c>
       <c r="T19" s="1">
         <f t="shared" si="1"/>
-        <v>4.2057902973395928E-2</v>
+        <v>4.1159420289855073E-2</v>
       </c>
       <c r="U19">
         <f>'transcrips per recordingTALLY'!U19</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -17271,15 +19779,15 @@
       </c>
       <c r="F21" s="1">
         <f>'transcrips per recordingTALLY'!G17/'transcrips per recordingTALLY'!G$1</f>
-        <v>1.4492753623188406E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f>'transcrips per recordingTALLY'!H17/'transcrips per recordingTALLY'!H$1</f>
-        <v>1.4084507042253521E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>'transcrips per recordingTALLY'!I17/'transcrips per recordingTALLY'!I$1</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <f>'transcrips per recordingTALLY'!J17/'transcrips per recordingTALLY'!J$1</f>
@@ -17299,7 +19807,7 @@
       </c>
       <c r="M21" s="1">
         <f>'transcrips per recordingTALLY'!N17/'transcrips per recordingTALLY'!N$1</f>
-        <v>0</v>
+        <v>1.4925373134328358E-2</v>
       </c>
       <c r="N21" s="1">
         <f>'transcrips per recordingTALLY'!O17/'transcrips per recordingTALLY'!O$1</f>
@@ -17307,7 +19815,7 @@
       </c>
       <c r="O21" s="1">
         <f>'transcrips per recordingTALLY'!P17/'transcrips per recordingTALLY'!P$1</f>
-        <v>0</v>
+        <v>7.9207920792079209E-2</v>
       </c>
       <c r="P21" s="1">
         <f>'transcrips per recordingTALLY'!Q17/'transcrips per recordingTALLY'!Q$1</f>
@@ -17327,7 +19835,7 @@
       </c>
       <c r="T21" s="1">
         <f t="shared" si="1"/>
-        <v>5.6355038443219707E-2</v>
+        <v>9.4133293926407569E-2</v>
       </c>
       <c r="U21">
         <f>'transcrips per recordingTALLY'!U21</f>
@@ -17350,15 +19858,15 @@
       </c>
       <c r="E22" s="1">
         <f>'transcrips per recordingTALLY'!F21/'transcrips per recordingTALLY'!F$1</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F22" s="1">
         <f>'transcrips per recordingTALLY'!G21/'transcrips per recordingTALLY'!G$1</f>
-        <v>2.8985507246376812E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f>'transcrips per recordingTALLY'!H21/'transcrips per recordingTALLY'!H$1</f>
-        <v>1.4084507042253521E-2</v>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="H22" s="1">
         <f>'transcrips per recordingTALLY'!I21/'transcrips per recordingTALLY'!I$1</f>
@@ -17410,7 +19918,7 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" si="1"/>
-        <v>4.3070014288630332E-2</v>
+        <v>4.2057902973395928E-2</v>
       </c>
       <c r="U22">
         <f>'transcrips per recordingTALLY'!U22</f>
@@ -17497,7 +20005,7 @@
       </c>
       <c r="U23">
         <f>'transcrips per recordingTALLY'!U23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -17512,7 +20020,7 @@
       </c>
       <c r="D24" s="1">
         <f>'transcrips per recordingTALLY'!E26/'transcrips per recordingTALLY'!E$1</f>
-        <v>0</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="E24" s="1">
         <f>'transcrips per recordingTALLY'!F26/'transcrips per recordingTALLY'!F$1</f>
@@ -17552,11 +20060,11 @@
       </c>
       <c r="N24" s="1">
         <f>'transcrips per recordingTALLY'!O26/'transcrips per recordingTALLY'!O$1</f>
-        <v>2.6666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <f>'transcrips per recordingTALLY'!P26/'transcrips per recordingTALLY'!P$1</f>
-        <v>9.9009900990099011E-3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <f>'transcrips per recordingTALLY'!Q26/'transcrips per recordingTALLY'!Q$1</f>
@@ -17576,7 +20084,7 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" si="1"/>
-        <v>3.6567656765676568E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="U24">
         <f>'transcrips per recordingTALLY'!U24</f>
@@ -17607,7 +20115,7 @@
       </c>
       <c r="G25" s="1">
         <f>'transcrips per recordingTALLY'!H25/'transcrips per recordingTALLY'!H$1</f>
-        <v>0</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="H25" s="1">
         <f>'transcrips per recordingTALLY'!I25/'transcrips per recordingTALLY'!I$1</f>
@@ -17615,11 +20123,11 @@
       </c>
       <c r="I25" s="1">
         <f>'transcrips per recordingTALLY'!J25/'transcrips per recordingTALLY'!J$1</f>
-        <v>1.4285714285714285E-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>'transcrips per recordingTALLY'!K25/'transcrips per recordingTALLY'!K$1</f>
-        <v>2.8985507246376812E-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <f>'transcrips per recordingTALLY'!L25/'transcrips per recordingTALLY'!L$1</f>
@@ -17659,11 +20167,11 @@
       </c>
       <c r="T25" s="1">
         <f t="shared" si="1"/>
-        <v>4.3271221532091099E-2</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="U25">
         <f>'transcrips per recordingTALLY'!U25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -17706,7 +20214,7 @@
       </c>
       <c r="K26" s="1">
         <f>'transcrips per recordingTALLY'!L24/'transcrips per recordingTALLY'!L$1</f>
-        <v>1.4492753623188406E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
         <f>'transcrips per recordingTALLY'!M24/'transcrips per recordingTALLY'!M$1</f>
@@ -17722,7 +20230,7 @@
       </c>
       <c r="O26" s="1">
         <f>'transcrips per recordingTALLY'!P24/'transcrips per recordingTALLY'!P$1</f>
-        <v>0</v>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="P26" s="1">
         <f>'transcrips per recordingTALLY'!Q24/'transcrips per recordingTALLY'!Q$1</f>
@@ -17742,11 +20250,11 @@
       </c>
       <c r="T26" s="1">
         <f t="shared" si="1"/>
-        <v>4.1159420289855073E-2</v>
+        <v>3.6567656765676568E-2</v>
       </c>
       <c r="U26">
         <f>'transcrips per recordingTALLY'!U26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -17927,7 +20435,7 @@
       </c>
       <c r="D29" s="1">
         <f>'transcrips per recordingTALLY'!E23/'transcrips per recordingTALLY'!E$1</f>
-        <v>4.1095890410958902E-2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <f>'transcrips per recordingTALLY'!F23/'transcrips per recordingTALLY'!F$1</f>
@@ -17947,11 +20455,11 @@
       </c>
       <c r="I29" s="1">
         <f>'transcrips per recordingTALLY'!J23/'transcrips per recordingTALLY'!J$1</f>
-        <v>0</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="J29" s="1">
         <f>'transcrips per recordingTALLY'!K23/'transcrips per recordingTALLY'!K$1</f>
-        <v>0</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="K29" s="1">
         <f>'transcrips per recordingTALLY'!L23/'transcrips per recordingTALLY'!L$1</f>
@@ -17991,7 +20499,7 @@
       </c>
       <c r="T29" s="1">
         <f t="shared" si="1"/>
-        <v>4.1095890410958902E-2</v>
+        <v>4.3271221532091099E-2</v>
       </c>
       <c r="U29">
         <f>'transcrips per recordingTALLY'!U29</f>

--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -1929,7 +1929,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Top Ten Transcribed Phrases</a:t>
+                  <a:t>Top Two Transcribed Phrases</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9695,6 +9695,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9752,6 +9753,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11154,6 +11156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11195,6 +11198,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -11228,6 +11232,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -11258,6 +11263,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26479,8 +26485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="30960" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView minimized="1" xWindow="400" yWindow="0" windowWidth="30960" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Source info" sheetId="2" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="chart for a nice coal dower" sheetId="3" r:id="rId3"/>
     <sheet name="chart for top 21" sheetId="7" r:id="rId4"/>
     <sheet name="chart for top 10" sheetId="8" r:id="rId5"/>
-    <sheet name="chart for top 2" sheetId="9" r:id="rId6"/>
-    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId7"/>
+    <sheet name="Top2" sheetId="10" r:id="rId6"/>
+    <sheet name="chart for top 2" sheetId="9" r:id="rId7"/>
+    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'transcrips per recordingTALLY'!$A$2:$V$183</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1061,6 +1062,895 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>931028.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.851662E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="2101373048"/>
+        <c:axId val="2101370056"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$3:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$3:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$3:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$3:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$3:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$3:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$3:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$3:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$3:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$3:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="2101364040"/>
+        <c:axId val="2101367016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2101373048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101370056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2101370056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101373048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101367016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101364040"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2101364040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101367016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1176,8 +2066,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2145825496"/>
-        <c:axId val="2145831048"/>
+        <c:axId val="2117327640"/>
+        <c:axId val="2117333192"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -1908,11 +2798,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2145842232"/>
-        <c:axId val="2145836792"/>
+        <c:axId val="2117344376"/>
+        <c:axId val="2117338936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145825496"/>
+        <c:axId val="2117327640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145831048"/>
+        <c:crossAx val="2117333192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +2838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145831048"/>
+        <c:axId val="2117333192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,12 +2873,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145825496"/>
+        <c:crossAx val="2117327640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145836792"/>
+        <c:axId val="2117338936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,12 +2907,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145842232"/>
+        <c:crossAx val="2117344376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2145842232"/>
+        <c:axId val="2117344376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145836792"/>
+        <c:crossAx val="2117338936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2340,8 +3230,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="9"/>
-        <c:axId val="2144986696"/>
-        <c:axId val="2144989672"/>
+        <c:axId val="2102194968"/>
+        <c:axId val="2102197944"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2580,11 +3470,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2144996136"/>
-        <c:axId val="2144992856"/>
+        <c:axId val="2102204408"/>
+        <c:axId val="2102201128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144986696"/>
+        <c:axId val="2102194968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +3483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144989672"/>
+        <c:crossAx val="2102197944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2601,7 +3491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144989672"/>
+        <c:axId val="2102197944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,12 +3516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144986696"/>
+        <c:crossAx val="2102194968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144992856"/>
+        <c:axId val="2102201128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,12 +3545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144996136"/>
+        <c:crossAx val="2102204408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144996136"/>
+        <c:axId val="2102204408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +3559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144992856"/>
+        <c:crossAx val="2102201128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3305,8 +4195,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2145196424"/>
-        <c:axId val="2145199400"/>
+        <c:axId val="2076569576"/>
+        <c:axId val="2076572552"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5583,11 +6473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2145205432"/>
-        <c:axId val="2145202440"/>
+        <c:axId val="2076578584"/>
+        <c:axId val="2076575592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145196424"/>
+        <c:axId val="2076569576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +6486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145199400"/>
+        <c:crossAx val="2076572552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5604,7 +6494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145199400"/>
+        <c:axId val="2076572552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,12 +6505,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145196424"/>
+        <c:crossAx val="2076569576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145202440"/>
+        <c:axId val="2076575592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,12 +6520,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145205432"/>
+        <c:crossAx val="2076578584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2145205432"/>
+        <c:axId val="2076578584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5644,7 +6534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145202440"/>
+        <c:crossAx val="2076575592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5870,8 +6760,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2145325304"/>
-        <c:axId val="2145328280"/>
+        <c:axId val="2076698920"/>
+        <c:axId val="2076701896"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -8148,11 +9038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2145334312"/>
-        <c:axId val="2145331320"/>
+        <c:axId val="2076707928"/>
+        <c:axId val="2076704936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145325304"/>
+        <c:axId val="2076698920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8161,7 +9051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145328280"/>
+        <c:crossAx val="2076701896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8169,7 +9059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145328280"/>
+        <c:axId val="2076701896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8180,12 +9070,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145325304"/>
+        <c:crossAx val="2076698920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145331320"/>
+        <c:axId val="2076704936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,12 +9085,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145334312"/>
+        <c:crossAx val="2076707928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2145334312"/>
+        <c:axId val="2076707928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8209,7 +9099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145331320"/>
+        <c:crossAx val="2076704936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8219,6 +9109,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8360,8 +9251,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2144621656"/>
-        <c:axId val="2144618664"/>
+        <c:axId val="2102300904"/>
+        <c:axId val="2102303880"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -9624,11 +10515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2144612648"/>
-        <c:axId val="2144615624"/>
+        <c:axId val="2102309912"/>
+        <c:axId val="2102306920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144621656"/>
+        <c:axId val="2102300904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9637,7 +10528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144618664"/>
+        <c:crossAx val="2102303880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9645,7 +10536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144618664"/>
+        <c:axId val="2102303880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9656,12 +10547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144621656"/>
+        <c:crossAx val="2102300904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144615624"/>
+        <c:axId val="2102306920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9671,12 +10562,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144612648"/>
+        <c:crossAx val="2102309912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144612648"/>
+        <c:axId val="2102309912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9685,7 +10576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144615624"/>
+        <c:crossAx val="2102306920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9866,8 +10757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2144499032"/>
-        <c:axId val="2144493464"/>
+        <c:axId val="2101510616"/>
+        <c:axId val="2101505048"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -11130,11 +12021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2144482296"/>
-        <c:axId val="2144487720"/>
+        <c:axId val="2101493880"/>
+        <c:axId val="2101499304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144499032"/>
+        <c:axId val="2101510616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11162,7 +12053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144493464"/>
+        <c:crossAx val="2101505048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11170,7 +12061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144493464"/>
+        <c:axId val="2101505048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11205,12 +12096,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144499032"/>
+        <c:crossAx val="2101510616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144487720"/>
+        <c:axId val="2101499304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11239,12 +12130,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144482296"/>
+        <c:crossAx val="2101493880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144482296"/>
+        <c:axId val="2101493880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11253,7 +12144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144487720"/>
+        <c:crossAx val="2101499304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11292,11 +12183,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Observed Transcription</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> distribution over all recorded </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>phrases,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> as compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -11314,6 +12237,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="0" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
             <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
@@ -11321,76 +12259,31 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$C$3:$C$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>931028.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.851662E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.013781E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>859307.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>826911.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>899370.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>892949.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11398,18 +12291,18 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2144369688"/>
-        <c:axId val="2144366696"/>
+        <c:axId val="-2142178584"/>
+        <c:axId val="-2141431288"/>
       </c:barChart>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -11428,81 +12321,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$E$3:$E$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$E$3:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11524,81 +12376,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$F$3:$F$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11620,81 +12431,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$G$3:$G$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11716,81 +12486,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$H$3:$H$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11812,81 +12541,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$I$3:$I$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11908,81 +12596,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$J$3:$J$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$J$3:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12004,81 +12651,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$K$3:$K$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$K$3:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12100,81 +12706,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$L$3:$L$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$L$3:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12196,81 +12761,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$M$3:$M$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$M$3:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12292,80 +12816,39 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$N$3:$N$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -12388,81 +12871,41 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$O$3:$O$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$O$3:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12484,81 +12927,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$P$3:$P$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$P$3:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12580,81 +12982,40 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'transcrips per recordingTALLY'!$B$3:$B$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$B$3:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>an ice cold hour</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>a nice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>in ice cold hour</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>a nice old hour</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>a nice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>an ice cold dower</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>an ice coal dower</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>an ice gold hour</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>an eye scold hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'transcrips per recordingTALLY'!$Q$3:$Q$11</c:f>
+              <c:f>'transcrips per recordingTALLY'!$Q$3:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12669,20 +13030,49 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2144360680"/>
-        <c:axId val="2144363656"/>
+        <c:axId val="-2139129784"/>
+        <c:axId val="-2139118632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144369688"/>
+        <c:axId val="-2142178584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Top Two Transcribed Phrases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144366696"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141431288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12690,47 +13080,90 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144366696"/>
+        <c:axId val="-2141431288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expected Freq</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Metric Values</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144369688"/>
+        <c:crossAx val="-2142178584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144363656"/>
+        <c:axId val="-2139118632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Observed Transcriptions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144360680"/>
+        <c:crossAx val="-2139129784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144360680"/>
+        <c:axId val="-2139129784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144363656"/>
+        <c:crossAx val="-2139118632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12747,12 +13180,19 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13026,6 +13466,33 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6272696" cy="8105913"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13066,10 +13533,10 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26445,8 +26912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView showRuler="0" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26465,8 +26932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26485,8 +26952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="S92" sqref="S92"/>
+    <sheetView showRuler="0" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="400" yWindow="0" windowWidth="30960" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="5900" yWindow="0" windowWidth="26100" windowHeight="19480" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Source info" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,10 @@
     <sheet name="Top2" sheetId="10" r:id="rId6"/>
     <sheet name="chart for top 2" sheetId="9" r:id="rId7"/>
     <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1:$B$179</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'transcrips per recordingTALLY'!$A$2:$V$183</definedName>
   </definedNames>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="223">
   <si>
     <t>Answer.answer</t>
   </si>
@@ -688,6 +690,18 @@
   <si>
     <t>has more than one transcription on at least one recording</t>
   </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>observed count</t>
+  </si>
+  <si>
+    <t>predicted?</t>
+  </si>
+  <si>
+    <t>sum of unpredicteds:</t>
+  </si>
 </sst>
 </file>
 
@@ -735,8 +749,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -744,9 +762,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1133,8 +1155,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2101373048"/>
-        <c:axId val="2101370056"/>
+        <c:axId val="1856190104"/>
+        <c:axId val="1856193080"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1851,11 +1873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2101364040"/>
-        <c:axId val="2101367016"/>
+        <c:axId val="1856199112"/>
+        <c:axId val="1856196120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2101373048"/>
+        <c:axId val="1856190104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101370056"/>
+        <c:crossAx val="1856193080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1872,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101370056"/>
+        <c:axId val="1856193080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,12 +1905,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101373048"/>
+        <c:crossAx val="1856190104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101367016"/>
+        <c:axId val="1856196120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,12 +1920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101364040"/>
+        <c:crossAx val="1856199112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2101364040"/>
+        <c:axId val="1856199112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101367016"/>
+        <c:crossAx val="1856196120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1922,7 +1944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2066,8 +2087,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2117327640"/>
-        <c:axId val="2117333192"/>
+        <c:axId val="1834064152"/>
+        <c:axId val="1834058584"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2798,11 +2819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2117344376"/>
-        <c:axId val="2117338936"/>
+        <c:axId val="1834047416"/>
+        <c:axId val="1834052840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117327640"/>
+        <c:axId val="1834064152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117333192"/>
+        <c:crossAx val="1834058584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2838,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117333192"/>
+        <c:axId val="1834058584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,12 +2894,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117327640"/>
+        <c:crossAx val="1834064152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117338936"/>
+        <c:axId val="1834052840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,12 +2928,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117344376"/>
+        <c:crossAx val="1834047416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2117344376"/>
+        <c:axId val="1834047416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117338936"/>
+        <c:crossAx val="1834052840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3230,8 +3251,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="9"/>
-        <c:axId val="2102194968"/>
-        <c:axId val="2102197944"/>
+        <c:axId val="1854321848"/>
+        <c:axId val="1854324824"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3470,11 +3491,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2102204408"/>
-        <c:axId val="2102201128"/>
+        <c:axId val="1854331288"/>
+        <c:axId val="1854328008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102194968"/>
+        <c:axId val="1854321848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102197944"/>
+        <c:crossAx val="1854324824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3491,7 +3512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102197944"/>
+        <c:axId val="1854324824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,12 +3537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102194968"/>
+        <c:crossAx val="1854321848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102201128"/>
+        <c:axId val="1854328008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,12 +3566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102204408"/>
+        <c:crossAx val="1854331288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2102204408"/>
+        <c:axId val="1854331288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102201128"/>
+        <c:crossAx val="1854328008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,8 +4216,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2076569576"/>
-        <c:axId val="2076572552"/>
+        <c:axId val="1836011816"/>
+        <c:axId val="1836014792"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -6473,11 +6494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2076578584"/>
-        <c:axId val="2076575592"/>
+        <c:axId val="1836020824"/>
+        <c:axId val="1836017832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2076569576"/>
+        <c:axId val="1836011816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6486,7 +6507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076572552"/>
+        <c:crossAx val="1836014792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6494,7 +6515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076572552"/>
+        <c:axId val="1836014792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,12 +6526,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076569576"/>
+        <c:crossAx val="1836011816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076575592"/>
+        <c:axId val="1836017832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,12 +6541,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076578584"/>
+        <c:crossAx val="1836020824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2076578584"/>
+        <c:axId val="1836020824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076575592"/>
+        <c:crossAx val="1836017832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6760,8 +6781,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2076698920"/>
-        <c:axId val="2076701896"/>
+        <c:axId val="1835039464"/>
+        <c:axId val="1835036472"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -9038,11 +9059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2076707928"/>
-        <c:axId val="2076704936"/>
+        <c:axId val="1835030456"/>
+        <c:axId val="1835033432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2076698920"/>
+        <c:axId val="1835039464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9051,7 +9072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076701896"/>
+        <c:crossAx val="1835036472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9059,7 +9080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076701896"/>
+        <c:axId val="1835036472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9070,12 +9091,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076698920"/>
+        <c:crossAx val="1835039464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076704936"/>
+        <c:axId val="1835033432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9085,12 +9106,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076707928"/>
+        <c:crossAx val="1835030456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2076707928"/>
+        <c:axId val="1835030456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9099,7 +9120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076704936"/>
+        <c:crossAx val="1835033432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9109,7 +9130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9251,8 +9271,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2102300904"/>
-        <c:axId val="2102303880"/>
+        <c:axId val="1834937176"/>
+        <c:axId val="1834940152"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -10515,11 +10535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2102309912"/>
-        <c:axId val="2102306920"/>
+        <c:axId val="1834946184"/>
+        <c:axId val="1834943192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102300904"/>
+        <c:axId val="1834937176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10528,7 +10548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102303880"/>
+        <c:crossAx val="1834940152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10536,7 +10556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102303880"/>
+        <c:axId val="1834940152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10547,12 +10567,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102300904"/>
+        <c:crossAx val="1834937176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102306920"/>
+        <c:axId val="1834943192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10562,12 +10582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102309912"/>
+        <c:crossAx val="1834946184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2102309912"/>
+        <c:axId val="1834946184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10576,7 +10596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102306920"/>
+        <c:crossAx val="1834943192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10757,8 +10777,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2101510616"/>
-        <c:axId val="2101505048"/>
+        <c:axId val="1854478056"/>
+        <c:axId val="1854483608"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -12021,11 +12041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2101493880"/>
-        <c:axId val="2101499304"/>
+        <c:axId val="1854494792"/>
+        <c:axId val="1854489352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2101510616"/>
+        <c:axId val="1854478056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12053,7 +12073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101505048"/>
+        <c:crossAx val="1854483608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12061,7 +12081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101505048"/>
+        <c:axId val="1854483608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,12 +12116,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101510616"/>
+        <c:crossAx val="1854478056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101499304"/>
+        <c:axId val="1854489352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12130,12 +12150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101493880"/>
+        <c:crossAx val="1854494792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2101493880"/>
+        <c:axId val="1854494792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12144,7 +12164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101499304"/>
+        <c:crossAx val="1854489352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12298,8 +12318,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2142178584"/>
-        <c:axId val="-2141431288"/>
+        <c:axId val="1854621080"/>
+        <c:axId val="1854626664"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -13030,11 +13050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2139129784"/>
-        <c:axId val="-2139118632"/>
+        <c:axId val="1854637848"/>
+        <c:axId val="1854632408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142178584"/>
+        <c:axId val="1854621080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13072,7 +13092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141431288"/>
+        <c:crossAx val="1854626664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13080,7 +13100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141431288"/>
+        <c:axId val="1854626664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13115,12 +13135,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142178584"/>
+        <c:crossAx val="1854621080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139118632"/>
+        <c:axId val="1854632408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13149,12 +13169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139129784"/>
+        <c:crossAx val="1854637848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2139129784"/>
+        <c:axId val="1854637848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13163,7 +13183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139118632"/>
+        <c:crossAx val="1854632408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13187,7 +13207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13468,7 +13488,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6272696" cy="8105913"/>
+    <xdr:ext cx="6285966" cy="8110924"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14159,8 +14179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26830,6 +26850,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:T183">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -26839,9 +26862,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 C3:C183">
@@ -26932,8 +26952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26952,7 +26972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A92" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
@@ -39393,4 +39413,2083 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D178"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3&lt;&gt;1,B3,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D13" si="0">IF(C4&lt;&gt;1,B4,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>217</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>IF(C15&lt;&gt;1,B15,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>IF(C17&lt;&gt;1,B17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>IF(C18&lt;&gt;1,B18,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>IF(C19&lt;&gt;1,B19,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D27" si="1">IF(C21&lt;&gt;1,B21,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D36" si="2">IF(C29&lt;&gt;1,B29,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D44" si="3">IF(C38&lt;&gt;1,B38,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D52" si="4">IF(C46&lt;&gt;1,B46,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D60" si="5">IF(C55&lt;&gt;1,B55,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D96" si="6">IF(C62&lt;&gt;1,B62,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>352</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98:D104" si="7">IF(C98&lt;&gt;1,B98,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ref="D106:D135" si="8">IF(C106&lt;&gt;1,B106,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134">
+        <v>38</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:D142" si="9">IF(C137&lt;&gt;1,B137,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <f>IF(C144&lt;&gt;1,B144,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <f>IF(C145&lt;&gt;1,B145,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <f>IF(C146&lt;&gt;1,B146,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <f>IF(C148&lt;&gt;1,B148,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <f>IF(C149&lt;&gt;1,B149,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <f>IF(C150&lt;&gt;1,B150,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <f>IF(C159&lt;&gt;1,B159,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <f>IF(C172&lt;&gt;1,B172,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <f>IF(C173&lt;&gt;1,B173,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <f>IF(C174&lt;&gt;1,B174,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <f>IF(C175&lt;&gt;1,B175,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <f>IF(C176&lt;&gt;1,B176,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="C178" t="s">
+        <v>222</v>
+      </c>
+      <c r="D178">
+        <f>SUM(D3:D176)</f>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B179">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="18"/>
+        <filter val="2"/>
+        <filter val="217"/>
+        <filter val="3"/>
+        <filter val="352"/>
+        <filter val="38"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="63"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:B184">
+      <sortCondition ref="A1:A184"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B177">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="0" windowWidth="26100" windowHeight="19480" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="5900" yWindow="0" windowWidth="26100" windowHeight="19480" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Source info" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <sheet name="chart for top 10" sheetId="8" r:id="rId5"/>
     <sheet name="Top2" sheetId="10" r:id="rId6"/>
     <sheet name="chart for top 2" sheetId="9" r:id="rId7"/>
-    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="individual vertical charts" sheetId="12" r:id="rId8"/>
+    <sheet name="transcrip per rec percentDPRCTD" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1:$B$179</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$A$1:$B$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'transcrip per rec percentDPRCTD'!$A$2:$T$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'transcrips per recordingTALLY'!$A$2:$V$183</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1155,8 +1156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1856190104"/>
-        <c:axId val="1856193080"/>
+        <c:axId val="2128296216"/>
+        <c:axId val="2128299192"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1873,11 +1874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="1856199112"/>
-        <c:axId val="1856196120"/>
+        <c:axId val="2128305224"/>
+        <c:axId val="2128302232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1856190104"/>
+        <c:axId val="2128296216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,17 +1887,19 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856193080"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2128299192"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1856193080"/>
+        <c:axId val="2128299192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1905,14 +1908,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856190104"/>
+        <c:crossAx val="2128296216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1856196120"/>
+        <c:axId val="2128302232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1920,12 +1926,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856199112"/>
+        <c:crossAx val="2128305224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1856199112"/>
+        <c:axId val="2128305224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,8 +1942,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856196120"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2128302232"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1944,6 +1952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2087,8 +2096,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1834064152"/>
-        <c:axId val="1834058584"/>
+        <c:axId val="2128409528"/>
+        <c:axId val="2128415080"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2819,11 +2828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="1834047416"/>
-        <c:axId val="1834052840"/>
+        <c:axId val="2128426264"/>
+        <c:axId val="2128420824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1834064152"/>
+        <c:axId val="2128409528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834058584"/>
+        <c:crossAx val="2128415080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +2868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1834058584"/>
+        <c:axId val="2128415080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,12 +2903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834064152"/>
+        <c:crossAx val="2128409528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1834052840"/>
+        <c:axId val="2128420824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,12 +2937,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834047416"/>
+        <c:crossAx val="2128426264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1834047416"/>
+        <c:axId val="2128426264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,8 +2951,5970 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834052840"/>
+        <c:crossAx val="2128420824"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "an ice cold hour", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>931028.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="2144378632"/>
+        <c:axId val="2144381608"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="2144525560"/>
+        <c:axId val="2144376984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2144378632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144381608"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144381608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144378632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144376984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144525560"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2144525560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144376984"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "a nice cold hour", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.851662E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2145385560"/>
+        <c:axId val="-2143382248"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>59.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2145371000"/>
+        <c:axId val="-2143379208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2145385560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143382248"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2143382248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145385560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143379208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145371000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2145371000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143379208"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ice cold hour", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.503158E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2143313640"/>
+        <c:axId val="-2143340568"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>in ice cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2143351656"/>
+        <c:axId val="-2143354648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143313640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143340568"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2143340568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143313640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143354648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143351656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2143351656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143354648"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ice gold hour", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.820004E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2139530232"/>
+        <c:axId val="-2139611688"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice gold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2139454040"/>
+        <c:axId val="-2135677928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2139530232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139611688"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139611688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139530232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2135677928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139454040"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2139454040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135677928"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ice cold dower", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>859307.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2143147352"/>
+        <c:axId val="-2143035992"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2142534072"/>
+        <c:axId val="-2142895416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143147352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143035992"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2143035992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143147352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2142895416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142534072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2142534072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142895416"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ice coal dower", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>826911.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2131474760"/>
+        <c:axId val="-2131471784"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2131465752"/>
+        <c:axId val="-2131468744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2131474760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131471784"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2131471784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131474760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2131468744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131465752"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2131465752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131468744"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of transcriptions of "a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>eye scold hour", divided</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>recording, compared to expected UNISYN frequency metric</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100251665126798"/>
+          <c:y val="0.0104321907600596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq Metric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>892949.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="-2127629032"/>
+        <c:axId val="-2128153720"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nigh scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a nye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an aye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice coal dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice cole dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice kohl dower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an ice-cold our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'transcrips per recordingTALLY'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>an eye scold hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transcrips per recordingTALLY'!$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="-2128147688"/>
+        <c:axId val="-2128150680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2127629032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128153720"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128153720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0E6"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127629032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0E6"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2128150680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128147688"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
+        <c:minorUnit val="2.0"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2128147688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128150680"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3251,8 +9222,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="9"/>
-        <c:axId val="1854321848"/>
-        <c:axId val="1854324824"/>
+        <c:axId val="2128059032"/>
+        <c:axId val="2128062008"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3491,11 +9462,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="1854331288"/>
-        <c:axId val="1854328008"/>
+        <c:axId val="2128068472"/>
+        <c:axId val="2128065192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854321848"/>
+        <c:axId val="2128059032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +9475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854324824"/>
+        <c:crossAx val="2128062008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3512,7 +9483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854324824"/>
+        <c:axId val="2128062008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,12 +9508,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854321848"/>
+        <c:crossAx val="2128059032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1854328008"/>
+        <c:axId val="2128065192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,12 +9537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854331288"/>
+        <c:crossAx val="2128068472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1854331288"/>
+        <c:axId val="2128068472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +9551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854328008"/>
+        <c:crossAx val="2128065192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,8 +10187,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1836011816"/>
-        <c:axId val="1836014792"/>
+        <c:axId val="2128863464"/>
+        <c:axId val="2128866440"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -6494,11 +12465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1836020824"/>
-        <c:axId val="1836017832"/>
+        <c:axId val="2128872472"/>
+        <c:axId val="2128869480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1836011816"/>
+        <c:axId val="2128863464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,7 +12478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1836014792"/>
+        <c:crossAx val="2128866440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6515,7 +12486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1836014792"/>
+        <c:axId val="2128866440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6526,12 +12497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1836011816"/>
+        <c:crossAx val="2128863464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1836017832"/>
+        <c:axId val="2128869480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6541,12 +12512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1836020824"/>
+        <c:crossAx val="2128872472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1836020824"/>
+        <c:axId val="2128872472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +12526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1836017832"/>
+        <c:crossAx val="2128869480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6781,8 +12752,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1835039464"/>
-        <c:axId val="1835036472"/>
+        <c:axId val="2128992808"/>
+        <c:axId val="2128995784"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -9059,11 +15030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1835030456"/>
-        <c:axId val="1835033432"/>
+        <c:axId val="2129001816"/>
+        <c:axId val="2128998824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1835039464"/>
+        <c:axId val="2128992808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9072,7 +15043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1835036472"/>
+        <c:crossAx val="2128995784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9080,7 +15051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1835036472"/>
+        <c:axId val="2128995784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9091,12 +15062,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1835039464"/>
+        <c:crossAx val="2128992808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1835033432"/>
+        <c:axId val="2128998824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,12 +15077,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1835030456"/>
+        <c:crossAx val="2129001816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1835030456"/>
+        <c:axId val="2129001816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,7 +15091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1835033432"/>
+        <c:crossAx val="2128998824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9271,8 +15242,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1834937176"/>
-        <c:axId val="1834940152"/>
+        <c:axId val="2129113368"/>
+        <c:axId val="2129116344"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -10535,11 +16506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="1834946184"/>
-        <c:axId val="1834943192"/>
+        <c:axId val="2129122376"/>
+        <c:axId val="2129119384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1834937176"/>
+        <c:axId val="2129113368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10548,7 +16519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834940152"/>
+        <c:crossAx val="2129116344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10556,7 +16527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1834940152"/>
+        <c:axId val="2129116344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10567,12 +16538,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834937176"/>
+        <c:crossAx val="2129113368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1834943192"/>
+        <c:axId val="2129119384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10582,12 +16553,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834946184"/>
+        <c:crossAx val="2129122376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1834946184"/>
+        <c:axId val="2129122376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10596,7 +16567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834943192"/>
+        <c:crossAx val="2129119384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10777,8 +16748,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1854478056"/>
-        <c:axId val="1854483608"/>
+        <c:axId val="2129236296"/>
+        <c:axId val="2129241848"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -12041,11 +18012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="1854494792"/>
-        <c:axId val="1854489352"/>
+        <c:axId val="2129253032"/>
+        <c:axId val="2129247592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854478056"/>
+        <c:axId val="2129236296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12073,7 +18044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854483608"/>
+        <c:crossAx val="2129241848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12081,7 +18052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854483608"/>
+        <c:axId val="2129241848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12116,12 +18087,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854478056"/>
+        <c:crossAx val="2129236296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1854489352"/>
+        <c:axId val="2129247592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12150,12 +18121,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854494792"/>
+        <c:crossAx val="2129253032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1854494792"/>
+        <c:axId val="2129253032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12164,7 +18135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854489352"/>
+        <c:crossAx val="2129247592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12318,8 +18289,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1854621080"/>
-        <c:axId val="1854626664"/>
+        <c:axId val="2128118056"/>
+        <c:axId val="2128123640"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -13050,11 +19021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="1854637848"/>
-        <c:axId val="1854632408"/>
+        <c:axId val="2128134824"/>
+        <c:axId val="2128129384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1854621080"/>
+        <c:axId val="2128118056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13092,7 +19063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854626664"/>
+        <c:crossAx val="2128123640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13100,7 +19071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854626664"/>
+        <c:axId val="2128123640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13135,12 +19106,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854621080"/>
+        <c:crossAx val="2128118056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1854632408"/>
+        <c:axId val="2128129384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13169,12 +19140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854637848"/>
+        <c:crossAx val="2128134824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1854637848"/>
+        <c:axId val="2128134824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13183,7 +19154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1854632408"/>
+        <c:crossAx val="2128129384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13580,6 +19551,235 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14179,7 +20379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -26952,7 +33152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A104" workbookViewId="0">
       <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
@@ -26972,8 +33172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26989,6 +33189,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U183"/>
   <sheetViews>
@@ -39415,13 +45635,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
+++ b/MechanicalTurkStuff/TranscriptionsPerRecordingCharts_Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="0" windowWidth="26100" windowHeight="19480" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="10080" yWindow="0" windowWidth="26100" windowHeight="19480" tabRatio="500" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Source info" sheetId="2" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2128296216"/>
-        <c:axId val="2128299192"/>
+        <c:axId val="2117900536"/>
+        <c:axId val="2117903512"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1874,11 +1874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2128305224"/>
-        <c:axId val="2128302232"/>
+        <c:axId val="2117909544"/>
+        <c:axId val="2117906552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128296216"/>
+        <c:axId val="2117900536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128299192"/>
+        <c:crossAx val="2117903512"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1895,7 +1895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128299192"/>
+        <c:axId val="2117903512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -1908,13 +1908,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128296216"/>
+        <c:crossAx val="2117900536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128302232"/>
+        <c:axId val="2117906552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -1926,14 +1926,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128305224"/>
+        <c:crossAx val="2117909544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128305224"/>
+        <c:axId val="2117909544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128302232"/>
+        <c:crossAx val="2117906552"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,7 +1952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2010,7 +2009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2096,8 +2094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2128409528"/>
-        <c:axId val="2128415080"/>
+        <c:axId val="2118014360"/>
+        <c:axId val="2118019912"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2828,11 +2826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2128426264"/>
-        <c:axId val="2128420824"/>
+        <c:axId val="2118031096"/>
+        <c:axId val="2118025656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128409528"/>
+        <c:axId val="2118014360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,13 +2852,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128415080"/>
+        <c:crossAx val="2118019912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2868,7 +2865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128415080"/>
+        <c:axId val="2118019912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,19 +2893,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128409528"/>
+        <c:crossAx val="2118014360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128420824"/>
+        <c:axId val="2118025656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,19 +2926,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128426264"/>
+        <c:crossAx val="2118031096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128426264"/>
+        <c:axId val="2118031096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128420824"/>
+        <c:crossAx val="2118025656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +2956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3089,8 +3083,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2144378632"/>
-        <c:axId val="2144381608"/>
+        <c:axId val="2117216472"/>
+        <c:axId val="2117213480"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3729,11 +3723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2144525560"/>
-        <c:axId val="2144376984"/>
+        <c:axId val="2117207464"/>
+        <c:axId val="2117210440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144378632"/>
+        <c:axId val="2117216472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +3736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144381608"/>
+        <c:crossAx val="2117213480"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3750,7 +3744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144381608"/>
+        <c:axId val="2117213480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -3763,13 +3757,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144378632"/>
+        <c:crossAx val="2117216472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2144376984"/>
+        <c:axId val="2117210440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -3781,14 +3775,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144525560"/>
+        <c:crossAx val="2117207464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2144525560"/>
+        <c:axId val="2117207464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +3791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144376984"/>
+        <c:crossAx val="2117210440"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3935,8 +3929,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2145385560"/>
-        <c:axId val="-2143382248"/>
+        <c:axId val="2117104648"/>
+        <c:axId val="2117101656"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -4575,11 +4569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2145371000"/>
-        <c:axId val="-2143379208"/>
+        <c:axId val="2117095640"/>
+        <c:axId val="2117098616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145385560"/>
+        <c:axId val="2117104648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143382248"/>
+        <c:crossAx val="2117101656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4596,7 +4590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143382248"/>
+        <c:axId val="2117101656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -4609,13 +4603,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145385560"/>
+        <c:crossAx val="2117104648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143379208"/>
+        <c:axId val="2117098616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -4627,14 +4621,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145371000"/>
+        <c:crossAx val="2117095640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2145371000"/>
+        <c:axId val="2117095640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143379208"/>
+        <c:crossAx val="2117098616"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4774,7 +4768,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,8 +4783,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2143313640"/>
-        <c:axId val="-2143340568"/>
+        <c:axId val="2136207624"/>
+        <c:axId val="2136210600"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5429,11 +5423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2143351656"/>
-        <c:axId val="-2143354648"/>
+        <c:axId val="2136216632"/>
+        <c:axId val="2136213640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143313640"/>
+        <c:axId val="2136207624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5442,7 +5436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143340568"/>
+        <c:crossAx val="2136210600"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5450,7 +5444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143340568"/>
+        <c:axId val="2136210600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -5463,13 +5457,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143313640"/>
+        <c:crossAx val="2136207624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143354648"/>
+        <c:axId val="2136213640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -5481,14 +5475,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143351656"/>
+        <c:crossAx val="2136216632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143351656"/>
+        <c:axId val="2136216632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5497,7 +5491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143354648"/>
+        <c:crossAx val="2136213640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5628,7 +5622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,8 +5637,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2139530232"/>
-        <c:axId val="-2139611688"/>
+        <c:axId val="2136320888"/>
+        <c:axId val="2136323864"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -6283,11 +6277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2139454040"/>
-        <c:axId val="-2135677928"/>
+        <c:axId val="2136329896"/>
+        <c:axId val="2136326904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139530232"/>
+        <c:axId val="2136320888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6296,7 +6290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139611688"/>
+        <c:crossAx val="2136323864"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6304,7 +6298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139611688"/>
+        <c:axId val="2136323864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -6317,13 +6311,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139530232"/>
+        <c:crossAx val="2136320888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135677928"/>
+        <c:axId val="2136326904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -6335,14 +6329,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139454040"/>
+        <c:crossAx val="2136329896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2139454040"/>
+        <c:axId val="2136329896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6351,7 +6345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135677928"/>
+        <c:crossAx val="2136326904"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6482,7 +6476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6497,8 +6491,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2143147352"/>
-        <c:axId val="-2143035992"/>
+        <c:axId val="2136433624"/>
+        <c:axId val="2136436600"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7137,11 +7131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2142534072"/>
-        <c:axId val="-2142895416"/>
+        <c:axId val="2136442632"/>
+        <c:axId val="2136439640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143147352"/>
+        <c:axId val="2136433624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,7 +7144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143035992"/>
+        <c:crossAx val="2136436600"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7158,7 +7152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143035992"/>
+        <c:axId val="2136436600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -7171,13 +7165,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143147352"/>
+        <c:crossAx val="2136433624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142895416"/>
+        <c:axId val="2136439640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -7189,14 +7183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142534072"/>
+        <c:crossAx val="2136442632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2142534072"/>
+        <c:axId val="2136442632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7205,7 +7199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142895416"/>
+        <c:crossAx val="2136439640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7351,8 +7345,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2131474760"/>
-        <c:axId val="-2131471784"/>
+        <c:axId val="2136545672"/>
+        <c:axId val="2136548648"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7991,11 +7985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2131465752"/>
-        <c:axId val="-2131468744"/>
+        <c:axId val="2136554680"/>
+        <c:axId val="2136551688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131474760"/>
+        <c:axId val="2136545672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +7998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131471784"/>
+        <c:crossAx val="2136548648"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8012,7 +8006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131471784"/>
+        <c:axId val="2136548648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -8025,13 +8019,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131474760"/>
+        <c:crossAx val="2136545672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131468744"/>
+        <c:axId val="2136551688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -8043,14 +8037,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131465752"/>
+        <c:crossAx val="2136554680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2131465752"/>
+        <c:axId val="2136554680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,7 +8053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131468744"/>
+        <c:crossAx val="2136551688"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8205,8 +8199,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2127629032"/>
-        <c:axId val="-2128153720"/>
+        <c:axId val="2136662040"/>
+        <c:axId val="2136665016"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8845,11 +8839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="-2128147688"/>
-        <c:axId val="-2128150680"/>
+        <c:axId val="2136671048"/>
+        <c:axId val="2136668056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127629032"/>
+        <c:axId val="2136662040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8858,7 +8852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128153720"/>
+        <c:crossAx val="2136665016"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8866,7 +8860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128153720"/>
+        <c:axId val="2136665016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0E6"/>
@@ -8879,13 +8873,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127629032"/>
+        <c:crossAx val="2136662040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128150680"/>
+        <c:axId val="2136668056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -8897,14 +8891,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128147688"/>
+        <c:crossAx val="2136671048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2128147688"/>
+        <c:axId val="2136671048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8913,7 +8907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128150680"/>
+        <c:crossAx val="2136668056"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9117,22 +9111,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -9222,8 +9216,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="9"/>
-        <c:axId val="2128059032"/>
-        <c:axId val="2128062008"/>
+        <c:axId val="2052835848"/>
+        <c:axId val="2052838824"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -9462,11 +9456,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2128068472"/>
-        <c:axId val="2128065192"/>
+        <c:axId val="2052845240"/>
+        <c:axId val="2052841960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128059032"/>
+        <c:axId val="2052835848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9475,7 +9469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128062008"/>
+        <c:crossAx val="2052838824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9483,7 +9477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128062008"/>
+        <c:axId val="2052838824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9508,12 +9502,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128059032"/>
+        <c:crossAx val="2052835848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128065192"/>
+        <c:axId val="2052841960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9537,12 +9531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128068472"/>
+        <c:crossAx val="2052845240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128068472"/>
+        <c:axId val="2052845240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9551,7 +9545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128065192"/>
+        <c:crossAx val="2052841960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9900,22 +9894,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -10115,22 +10109,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -10187,8 +10181,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2128863464"/>
-        <c:axId val="2128866440"/>
+        <c:axId val="2119553928"/>
+        <c:axId val="2119556904"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12465,11 +12459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2128872472"/>
-        <c:axId val="2128869480"/>
+        <c:axId val="2119562936"/>
+        <c:axId val="2119559944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128863464"/>
+        <c:axId val="2119553928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12478,7 +12472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128866440"/>
+        <c:crossAx val="2119556904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12486,7 +12480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128866440"/>
+        <c:axId val="2119556904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12497,12 +12491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128863464"/>
+        <c:crossAx val="2119553928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128869480"/>
+        <c:axId val="2119559944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12512,12 +12506,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128872472"/>
+        <c:crossAx val="2119562936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128872472"/>
+        <c:axId val="2119562936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12526,7 +12520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128869480"/>
+        <c:crossAx val="2119559944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12680,22 +12674,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -12752,8 +12746,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2128992808"/>
-        <c:axId val="2128995784"/>
+        <c:axId val="2119683272"/>
+        <c:axId val="2119686248"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -15030,11 +15024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2129001816"/>
-        <c:axId val="2128998824"/>
+        <c:axId val="2119692280"/>
+        <c:axId val="2119689288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128992808"/>
+        <c:axId val="2119683272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15043,7 +15037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128995784"/>
+        <c:crossAx val="2119686248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15051,7 +15045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128995784"/>
+        <c:axId val="2119686248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15062,12 +15056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128992808"/>
+        <c:crossAx val="2119683272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128998824"/>
+        <c:axId val="2119689288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15077,12 +15071,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129001816"/>
+        <c:crossAx val="2119692280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2129001816"/>
+        <c:axId val="2119692280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15091,7 +15085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128998824"/>
+        <c:crossAx val="2119689288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15209,22 +15203,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -15242,8 +15236,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2129113368"/>
-        <c:axId val="2129116344"/>
+        <c:axId val="2119803560"/>
+        <c:axId val="2119806536"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -16506,11 +16500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2129122376"/>
-        <c:axId val="2129119384"/>
+        <c:axId val="2119812568"/>
+        <c:axId val="2119809576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129113368"/>
+        <c:axId val="2119803560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16519,7 +16513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129116344"/>
+        <c:crossAx val="2119806536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16527,7 +16521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129116344"/>
+        <c:axId val="2119806536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16538,12 +16532,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129113368"/>
+        <c:crossAx val="2119803560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129119384"/>
+        <c:axId val="2119809576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16553,12 +16547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129122376"/>
+        <c:crossAx val="2119812568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2129122376"/>
+        <c:axId val="2119812568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16567,7 +16561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129119384"/>
+        <c:crossAx val="2119809576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16577,7 +16571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16715,22 +16708,22 @@
                   <c:v>7.851662E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.503158E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.013781E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.820004E6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859307.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>826911.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899370.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>892949.0</c:v>
@@ -16748,8 +16741,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2129236296"/>
-        <c:axId val="2129241848"/>
+        <c:axId val="2119926344"/>
+        <c:axId val="2119931896"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -18012,11 +18005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2129253032"/>
-        <c:axId val="2129247592"/>
+        <c:axId val="2119943080"/>
+        <c:axId val="2119937640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129236296"/>
+        <c:axId val="2119926344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18044,7 +18037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129241848"/>
+        <c:crossAx val="2119931896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18052,7 +18045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129241848"/>
+        <c:axId val="2119931896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18087,12 +18080,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129236296"/>
+        <c:crossAx val="2119926344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129247592"/>
+        <c:axId val="2119937640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18121,12 +18114,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129253032"/>
+        <c:crossAx val="2119943080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2129253032"/>
+        <c:axId val="2119943080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18135,7 +18128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129247592"/>
+        <c:crossAx val="2119937640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18289,8 +18282,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2128118056"/>
-        <c:axId val="2128123640"/>
+        <c:axId val="2120058520"/>
+        <c:axId val="2120064104"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -19021,11 +19014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2128134824"/>
-        <c:axId val="2128129384"/>
+        <c:axId val="2120075288"/>
+        <c:axId val="2120069848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128118056"/>
+        <c:axId val="2120058520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19063,7 +19056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128123640"/>
+        <c:crossAx val="2120064104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19071,7 +19064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128123640"/>
+        <c:axId val="2120064104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19106,12 +19099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128118056"/>
+        <c:crossAx val="2120058520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128129384"/>
+        <c:axId val="2120069848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19140,12 +19133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128134824"/>
+        <c:crossAx val="2120075288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128134824"/>
+        <c:axId val="2120075288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19154,7 +19147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128129384"/>
+        <c:crossAx val="2120069848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20379,8 +20372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20688,7 +20681,7 @@
         <v>142</v>
       </c>
       <c r="C5">
-        <v>5503158</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -20826,7 +20819,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>7820004</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -20895,7 +20888,7 @@
         <v>86</v>
       </c>
       <c r="C8">
-        <v>859307</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -21033,7 +21026,7 @@
         <v>98</v>
       </c>
       <c r="C10">
-        <v>899370</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -33192,8 +33185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
